--- a/team_specific_matrix/UMass Lowell_B.xlsx
+++ b/team_specific_matrix/UMass Lowell_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2108108108108108</v>
+        <v>0.2175732217573222</v>
       </c>
       <c r="C2">
-        <v>0.4918918918918919</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01081081081081081</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.2</v>
+        <v>0.200836820083682</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08648648648648649</v>
+        <v>0.1129707112970711</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0108695652173913</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C3">
-        <v>0.03260869565217391</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03260869565217391</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0108695652173913</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="P3">
-        <v>0.8152173913043478</v>
+        <v>0.7981651376146789</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.09782608695652174</v>
+        <v>0.1192660550458716</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07407407407407407</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03703703703703703</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P4">
-        <v>0.7777777777777778</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1111111111111111</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08088235294117647</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007352941176470588</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05147058823529412</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2279411764705882</v>
+        <v>0.2386363636363636</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.007352941176470588</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1838235294117647</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="R6">
-        <v>0.04411764705882353</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="S6">
-        <v>0.3970588235294117</v>
+        <v>0.3920454545454545</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1296296296296296</v>
+        <v>0.1148325358851675</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006172839506172839</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="E7">
-        <v>0.006172839506172839</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="F7">
-        <v>0.03703703703703703</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1419753086419753</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2469135802469136</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="R7">
-        <v>0.03703703703703703</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="S7">
-        <v>0.3950617283950617</v>
+        <v>0.4401913875598086</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06527415143603134</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02349869451697128</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05483028720626632</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1174934725848564</v>
+        <v>0.113871635610766</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007832898172323759</v>
+        <v>0.010351966873706</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1906005221932115</v>
+        <v>0.1801242236024845</v>
       </c>
       <c r="R8">
-        <v>0.09399477806788512</v>
+        <v>0.08281573498964803</v>
       </c>
       <c r="S8">
-        <v>0.4464751958224543</v>
+        <v>0.453416149068323</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08163265306122448</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09183673469387756</v>
+        <v>0.112</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02040816326530612</v>
+        <v>0.016</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2040816326530612</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.07142857142857142</v>
+        <v>0.064</v>
       </c>
       <c r="S9">
-        <v>0.4591836734693878</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09164733178654293</v>
+        <v>0.0926605504587156</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0197215777262181</v>
+        <v>0.01926605504587156</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06612529002320186</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1020881670533643</v>
+        <v>0.1119266055045872</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009280742459396751</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2204176334106729</v>
+        <v>0.2330275229357798</v>
       </c>
       <c r="R10">
-        <v>0.07308584686774942</v>
+        <v>0.06972477064220184</v>
       </c>
       <c r="S10">
-        <v>0.4176334106728538</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1380753138075314</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07531380753138076</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="K11">
-        <v>0.1882845188284519</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="L11">
-        <v>0.5732217573221757</v>
+        <v>0.5876288659793815</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02510460251046025</v>
+        <v>0.02061855670103093</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7816901408450704</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1267605633802817</v>
+        <v>0.125</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0352112676056338</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05633802816901409</v>
+        <v>0.05113636363636364</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.55</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.35</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006993006993006993</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2587412587412588</v>
+        <v>0.2303370786516854</v>
       </c>
       <c r="I15">
-        <v>0.05594405594405594</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="J15">
-        <v>0.2797202797202797</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="K15">
-        <v>0.1118881118881119</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02097902097902098</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04895104895104895</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2167832167832168</v>
+        <v>0.2191011235955056</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02238805970149254</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1716417910447761</v>
+        <v>0.1677018633540373</v>
       </c>
       <c r="I16">
-        <v>0.05223880597014925</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="J16">
-        <v>0.373134328358209</v>
+        <v>0.3726708074534161</v>
       </c>
       <c r="K16">
-        <v>0.1567164179104478</v>
+        <v>0.1490683229813665</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02238805970149254</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02238805970149254</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1791044776119403</v>
+        <v>0.1987577639751553</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01724137931034483</v>
+        <v>0.02064220183486239</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2183908045977012</v>
+        <v>0.2155963302752294</v>
       </c>
       <c r="I17">
-        <v>0.06896551724137931</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="J17">
-        <v>0.3994252873563218</v>
+        <v>0.3967889908256881</v>
       </c>
       <c r="K17">
-        <v>0.09482758620689655</v>
+        <v>0.1032110091743119</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01724137931034483</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05172413793103448</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.132183908045977</v>
+        <v>0.1261467889908257</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01724137931034483</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1896551724137931</v>
+        <v>0.2056737588652482</v>
       </c>
       <c r="I18">
-        <v>0.1120689655172414</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="J18">
-        <v>0.4482758620689655</v>
+        <v>0.4397163120567376</v>
       </c>
       <c r="K18">
-        <v>0.09482758620689655</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03448275862068965</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05172413793103448</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05172413793103448</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01275239107332625</v>
+        <v>0.01166666666666667</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2444208289054198</v>
+        <v>0.2491666666666667</v>
       </c>
       <c r="I19">
-        <v>0.04888416578108395</v>
+        <v>0.0525</v>
       </c>
       <c r="J19">
-        <v>0.3634431455897981</v>
+        <v>0.3566666666666667</v>
       </c>
       <c r="K19">
-        <v>0.1168969181721573</v>
+        <v>0.1116666666666667</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02869287991498406</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N19">
-        <v>0.001062699256110521</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="O19">
-        <v>0.07438894792773645</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1094580233793836</v>
+        <v>0.1133333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UMass Lowell_B.xlsx
+++ b/team_specific_matrix/UMass Lowell_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2175732217573222</v>
+        <v>0.2201492537313433</v>
       </c>
       <c r="C2">
-        <v>0.4560669456066946</v>
+        <v>0.458955223880597</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01255230125523013</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.200836820083682</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1129707112970711</v>
+        <v>0.1082089552238806</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01834862385321101</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C3">
-        <v>0.02752293577981652</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02752293577981652</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.009174311926605505</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="P3">
-        <v>0.7981651376146789</v>
+        <v>0.7983870967741935</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1192660550458716</v>
+        <v>0.1209677419354839</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05714285714285714</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02857142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.6857142857142857</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2285714285714286</v>
+        <v>0.2558139534883721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07386363636363637</v>
+        <v>0.075</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005681818181818182</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06818181818181818</v>
+        <v>0.06</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2386363636363636</v>
+        <v>0.255</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01136363636363636</v>
+        <v>0.015</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1534090909090909</v>
+        <v>0.15</v>
       </c>
       <c r="R6">
-        <v>0.05681818181818182</v>
+        <v>0.06</v>
       </c>
       <c r="S6">
-        <v>0.3920454545454545</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1148325358851675</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009569377990430622</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="E7">
-        <v>0.009569377990430622</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="F7">
-        <v>0.02870813397129187</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1339712918660287</v>
+        <v>0.1330645161290323</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2200956937799043</v>
+        <v>0.2217741935483871</v>
       </c>
       <c r="R7">
-        <v>0.0430622009569378</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="S7">
-        <v>0.4401913875598086</v>
+        <v>0.4274193548387097</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07246376811594203</v>
+        <v>0.06691449814126393</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02484472049689441</v>
+        <v>0.0241635687732342</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06211180124223602</v>
+        <v>0.05947955390334572</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.113871635610766</v>
+        <v>0.1152416356877323</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.010351966873706</v>
+        <v>0.01115241635687732</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1801242236024845</v>
+        <v>0.1802973977695167</v>
       </c>
       <c r="R8">
-        <v>0.08281573498964803</v>
+        <v>0.08736059479553904</v>
       </c>
       <c r="S8">
-        <v>0.453416149068323</v>
+        <v>0.4553903345724907</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07199999999999999</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07199999999999999</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.112</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.016</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R9">
-        <v>0.064</v>
+        <v>0.0625</v>
       </c>
       <c r="S9">
-        <v>0.464</v>
+        <v>0.4652777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0926605504587156</v>
+        <v>0.09179528838342811</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01926605504587156</v>
+        <v>0.02274573517465475</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06422018348623854</v>
+        <v>0.06580016246953696</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1119266055045872</v>
+        <v>0.1121039805036556</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009174311926605505</v>
+        <v>0.008935824532900082</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2330275229357798</v>
+        <v>0.2347684809098294</v>
       </c>
       <c r="R10">
-        <v>0.06972477064220184</v>
+        <v>0.06580016246953696</v>
       </c>
       <c r="S10">
-        <v>0.4</v>
+        <v>0.3980503655564582</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.134020618556701</v>
+        <v>0.1440922190201729</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07216494845360824</v>
+        <v>0.06628242074927954</v>
       </c>
       <c r="K11">
-        <v>0.1855670103092784</v>
+        <v>0.1988472622478386</v>
       </c>
       <c r="L11">
-        <v>0.5876288659793815</v>
+        <v>0.5706051873198847</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02061855670103093</v>
+        <v>0.02017291066282421</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7954545454545454</v>
+        <v>0.7867298578199052</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.125</v>
+        <v>0.1184834123222749</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02840909090909091</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05113636363636364</v>
+        <v>0.05213270142180094</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6428571428571429</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.06779661016949153</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005617977528089887</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2303370786516854</v>
+        <v>0.2261306532663317</v>
       </c>
       <c r="I15">
-        <v>0.06179775280898876</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="J15">
-        <v>0.303370786516854</v>
+        <v>0.3065326633165829</v>
       </c>
       <c r="K15">
-        <v>0.101123595505618</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01685393258426966</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06179775280898876</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2191011235955056</v>
+        <v>0.221105527638191</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02484472049689441</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1677018633540373</v>
+        <v>0.1657458563535912</v>
       </c>
       <c r="I16">
-        <v>0.04347826086956522</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="J16">
-        <v>0.3726708074534161</v>
+        <v>0.3646408839779006</v>
       </c>
       <c r="K16">
-        <v>0.1490683229813665</v>
+        <v>0.1767955801104972</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01863354037267081</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02484472049689441</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1987577639751553</v>
+        <v>0.1878453038674033</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02064220183486239</v>
+        <v>0.01814516129032258</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2155963302752294</v>
+        <v>0.217741935483871</v>
       </c>
       <c r="I17">
-        <v>0.06880733944954129</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="J17">
-        <v>0.3967889908256881</v>
+        <v>0.3931451612903226</v>
       </c>
       <c r="K17">
-        <v>0.1032110091743119</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01834862385321101</v>
+        <v>0.01814516129032258</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05045871559633028</v>
+        <v>0.04435483870967742</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1261467889908257</v>
+        <v>0.1270161290322581</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01418439716312057</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2056737588652482</v>
+        <v>0.2049689440993789</v>
       </c>
       <c r="I18">
-        <v>0.1063829787234043</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="J18">
-        <v>0.4397163120567376</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K18">
-        <v>0.0851063829787234</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03546099290780142</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="O18">
-        <v>0.04964539007092199</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06382978723404255</v>
+        <v>0.06832298136645963</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01166666666666667</v>
+        <v>0.01111934766493699</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2491666666666667</v>
+        <v>0.2446256486286138</v>
       </c>
       <c r="I19">
-        <v>0.0525</v>
+        <v>0.05485544848035582</v>
       </c>
       <c r="J19">
-        <v>0.3566666666666667</v>
+        <v>0.3573017049666419</v>
       </c>
       <c r="K19">
-        <v>0.1116666666666667</v>
+        <v>0.1134173461823573</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03333333333333333</v>
+        <v>0.03039288361749444</v>
       </c>
       <c r="N19">
-        <v>0.0008333333333333334</v>
+        <v>0.0007412898443291327</v>
       </c>
       <c r="O19">
-        <v>0.07083333333333333</v>
+        <v>0.072646404744255</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1133333333333333</v>
+        <v>0.1148999258710156</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UMass Lowell_B.xlsx
+++ b/team_specific_matrix/UMass Lowell_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2201492537313433</v>
+        <v>0.2266187050359712</v>
       </c>
       <c r="C2">
-        <v>0.458955223880597</v>
+        <v>0.4496402877697842</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01865671641791045</v>
+        <v>0.01798561151079137</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1940298507462687</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1082089552238806</v>
+        <v>0.1043165467625899</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C3">
-        <v>0.03225806451612903</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02419354838709677</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.008064516129032258</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="P3">
-        <v>0.7983870967741935</v>
+        <v>0.8015873015873016</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1209677419354839</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P4">
-        <v>0.6744186046511628</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2558139534883721</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.255</v>
+        <v>0.2585365853658537</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.015</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.15</v>
+        <v>0.1512195121951219</v>
       </c>
       <c r="R6">
-        <v>0.06</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.375609756097561</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1169354838709677</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01209677419354839</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="E7">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="F7">
-        <v>0.0282258064516129</v>
+        <v>0.02713178294573643</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1330645161290323</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004032258064516129</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2217741935483871</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="R7">
-        <v>0.04838709677419355</v>
+        <v>0.05038759689922481</v>
       </c>
       <c r="S7">
-        <v>0.4274193548387097</v>
+        <v>0.4302325581395349</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06691449814126393</v>
+        <v>0.06715063520871144</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0241635687732342</v>
+        <v>0.0235934664246824</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05947955390334572</v>
+        <v>0.05807622504537205</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1152416356877323</v>
+        <v>0.1161524500907441</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01115241635687732</v>
+        <v>0.01088929219600726</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1802973977695167</v>
+        <v>0.1814882032667877</v>
       </c>
       <c r="R8">
-        <v>0.08736059479553904</v>
+        <v>0.0852994555353902</v>
       </c>
       <c r="S8">
-        <v>0.4553903345724907</v>
+        <v>0.4573502722323049</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06944444444444445</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08333333333333333</v>
+        <v>0.07947019867549669</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1111111111111111</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01388888888888889</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1944444444444444</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="R9">
-        <v>0.0625</v>
+        <v>0.05960264900662252</v>
       </c>
       <c r="S9">
-        <v>0.4652777777777778</v>
+        <v>0.4768211920529801</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09179528838342811</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02274573517465475</v>
+        <v>0.02408702408702409</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06580016246953696</v>
+        <v>0.06604506604506605</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1121039805036556</v>
+        <v>0.1134421134421134</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008935824532900082</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2347684809098294</v>
+        <v>0.2362082362082362</v>
       </c>
       <c r="R10">
-        <v>0.06580016246953696</v>
+        <v>0.06526806526806526</v>
       </c>
       <c r="S10">
-        <v>0.3980503655564582</v>
+        <v>0.3954933954933955</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1440922190201729</v>
+        <v>0.1472222222222222</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06628242074927954</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K11">
-        <v>0.1988472622478386</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.5706051873198847</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02017291066282421</v>
+        <v>0.01944444444444444</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7867298578199052</v>
+        <v>0.7926267281105991</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1184834123222749</v>
+        <v>0.1152073732718894</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04265402843601896</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05213270142180094</v>
+        <v>0.05069124423963134</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6610169491525424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2711864406779661</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06779661016949153</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01005025125628141</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2261306532663317</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="I15">
-        <v>0.05527638190954774</v>
+        <v>0.05365853658536585</v>
       </c>
       <c r="J15">
-        <v>0.3065326633165829</v>
+        <v>0.3219512195121951</v>
       </c>
       <c r="K15">
-        <v>0.1005025125628141</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01507537688442211</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06532663316582915</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.221105527638191</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02209944751381215</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1657458563535912</v>
+        <v>0.1657754010695187</v>
       </c>
       <c r="I16">
-        <v>0.04419889502762431</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="J16">
-        <v>0.3646408839779006</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K16">
-        <v>0.1767955801104972</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01657458563535912</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02209944751381215</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1878453038674033</v>
+        <v>0.1871657754010695</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01814516129032258</v>
+        <v>0.01740812379110251</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.217741935483871</v>
+        <v>0.2147001934235977</v>
       </c>
       <c r="I17">
-        <v>0.07258064516129033</v>
+        <v>0.07156673114119923</v>
       </c>
       <c r="J17">
-        <v>0.3931451612903226</v>
+        <v>0.4003868471953578</v>
       </c>
       <c r="K17">
-        <v>0.1088709677419355</v>
+        <v>0.1083172147001934</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01814516129032258</v>
+        <v>0.01740812379110251</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04435483870967742</v>
+        <v>0.04642166344294004</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1270161290322581</v>
+        <v>0.1237911025145068</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01863354037267081</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2049689440993789</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.09937888198757763</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="J18">
-        <v>0.4347826086956522</v>
+        <v>0.4424242424242424</v>
       </c>
       <c r="K18">
-        <v>0.09316770186335403</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03105590062111801</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="N18">
-        <v>0.006211180124223602</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="O18">
-        <v>0.04347826086956522</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06832298136645963</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01111934766493699</v>
+        <v>0.01069900142653352</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2446256486286138</v>
+        <v>0.2417974322396576</v>
       </c>
       <c r="I19">
-        <v>0.05485544848035582</v>
+        <v>0.05563480741797432</v>
       </c>
       <c r="J19">
-        <v>0.3573017049666419</v>
+        <v>0.3573466476462197</v>
       </c>
       <c r="K19">
-        <v>0.1134173461823573</v>
+        <v>0.1141226818830243</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03039288361749444</v>
+        <v>0.02995720399429386</v>
       </c>
       <c r="N19">
-        <v>0.0007412898443291327</v>
+        <v>0.0007132667617689016</v>
       </c>
       <c r="O19">
-        <v>0.072646404744255</v>
+        <v>0.07203994293865906</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1148999258710156</v>
+        <v>0.1176890156918688</v>
       </c>
     </row>
   </sheetData>
